--- a/fastqFiles/fastq_0759.xlsx
+++ b/fastqFiles/fastq_0759.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23439A87-19E8-6B4E-9345-00B5159EB206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF74FD01-2681-8F4E-8C53-2007F9374358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20880" windowHeight="9040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
   <si>
     <t>libraryDate</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -481,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B25 E2:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -521,7 +524,7 @@
         <v>759</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -541,7 +544,7 @@
         <v>759</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -561,7 +564,7 @@
         <v>759</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -581,7 +584,7 @@
         <v>759</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -601,7 +604,7 @@
         <v>759</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -621,7 +624,7 @@
         <v>759</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -641,7 +644,7 @@
         <v>759</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -661,7 +664,7 @@
         <v>759</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -681,7 +684,7 @@
         <v>759</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -701,7 +704,7 @@
         <v>759</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -721,7 +724,7 @@
         <v>759</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -741,7 +744,7 @@
         <v>759</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -761,7 +764,7 @@
         <v>759</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -781,7 +784,7 @@
         <v>759</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -801,7 +804,7 @@
         <v>759</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -821,7 +824,7 @@
         <v>759</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -841,7 +844,7 @@
         <v>759</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -861,7 +864,7 @@
         <v>759</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -881,7 +884,7 @@
         <v>759</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -901,7 +904,7 @@
         <v>759</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
@@ -921,7 +924,7 @@
         <v>759</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
@@ -941,7 +944,7 @@
         <v>759</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
         <v>28</v>
@@ -961,7 +964,7 @@
         <v>759</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
         <v>29</v>
@@ -981,7 +984,7 @@
         <v>759</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
         <v>30</v>

--- a/fastqFiles/fastq_0759.xlsx
+++ b/fastqFiles/fastq_0759.xlsx
@@ -49,55 +49,55 @@
     <t xml:space="preserve">fullRNASEQ</t>
   </si>
   <si>
-    <t xml:space="preserve">sequence/run_0759_samples/run_759_s_1_withindex_sequence_TGTGCCA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0759_samples/run_759_s_1_withindex_sequence_AACGGAG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0759_samples/run_759_s_1_withindex_sequence_GATAGTT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0759_samples/run_759_s_1_withindex_sequence_GGTGAAT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0759_samples/run_759_s_1_withindex_sequence_ATGTTCT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0759_samples/run_759_s_1_withindex_sequence_GTAAAAA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0759_samples/run_759_s_1_withindex_sequence_GTCTGAT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0759_samples/run_759_s_1_withindex_sequence_CAATATC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0759_samples/run_759_s_1_withindex_sequence_CTCCCGA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0759_samples/run_759_s_1_withindex_sequence_GCCGTTT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0759_samples/run_759_s_1_withindex_sequence_TAGGTAA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0759_samples/run_759_s_1_withindex_sequence_TCGAGAT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0759_samples/run_759_s_1_withindex_sequence_CATTTAG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0759_samples/run_759_s_1_withindex_sequence_TCCGGGA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0759_samples/run_759_s_1_withindex_sequence_CGAAAGT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0759_samples/run_759_s_1_withindex_sequence_GCCTCCC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0759_samples/run_759_s_1_withindex_sequence_AGTTATG.fastq.gz</t>
+    <t xml:space="preserve">run_759_s_1_withindex_sequence_TGTGCCA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_759_s_1_withindex_sequence_AACGGAG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_759_s_1_withindex_sequence_GATAGTT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_759_s_1_withindex_sequence_GGTGAAT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_759_s_1_withindex_sequence_ATGTTCT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_759_s_1_withindex_sequence_GTAAAAA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_759_s_1_withindex_sequence_GTCTGAT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_759_s_1_withindex_sequence_CAATATC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_759_s_1_withindex_sequence_CTCCCGA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_759_s_1_withindex_sequence_GCCGTTT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_759_s_1_withindex_sequence_TAGGTAA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_759_s_1_withindex_sequence_TCGAGAT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_759_s_1_withindex_sequence_CATTTAG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_759_s_1_withindex_sequence_TCCGGGA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_759_s_1_withindex_sequence_CGAAAGT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_759_s_1_withindex_sequence_GCCTCCC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_759_s_1_withindex_sequence_AGTTATG.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">run_759_s_1_withindex_sequence_CTGCAAT.fastq.gz</t>
@@ -236,8 +236,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/fastqFiles/fastq_0759.xlsx
+++ b/fastqFiles/fastq_0759.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">

--- a/fastqFiles/fastq_0759.xlsx
+++ b/fastqFiles/fastq_0759.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">run_759_s_1_withindex_sequence_GCCGTTT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4]</t>
   </si>
   <si>
     <t xml:space="preserve">run_759_s_1_withindex_sequence_TAGGTAA.fastq.gz</t>
@@ -228,12 +231,14 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U20" activeCellId="0" sqref="U20"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="52.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -470,11 +475,11 @@
       <c r="H11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>9</v>
       </c>
@@ -491,16 +496,16 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>9</v>
       </c>
@@ -517,13 +522,13 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>4</v>
+      <c r="I13" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -543,7 +548,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,7 +568,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,7 +608,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -626,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -649,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
@@ -672,7 +677,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
@@ -695,7 +700,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0</v>
@@ -718,7 +723,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,7 +763,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
